--- a/Dados_estados_brasil.xlsx
+++ b/Dados_estados_brasil.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="129">
   <si>
     <t>codigo_uf</t>
   </si>
@@ -394,6 +394,24 @@
   </si>
   <si>
     <t>un_domesticas_sexo_resp_2018</t>
+  </si>
+  <si>
+    <t>Regiao</t>
+  </si>
+  <si>
+    <t>NORTE</t>
+  </si>
+  <si>
+    <t>NORDESTE</t>
+  </si>
+  <si>
+    <t>SUDESTE</t>
+  </si>
+  <si>
+    <t>SUL</t>
+  </si>
+  <si>
+    <t>CENTRO OESTE</t>
   </si>
 </sst>
 </file>
@@ -739,1441 +757,1525 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E15"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>115</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>14377</v>
       </c>
-      <c r="H2" s="8">
+      <c r="I2" s="8">
         <v>379</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>8188</v>
       </c>
-      <c r="H3" s="8">
+      <c r="I3" s="8">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>36858</v>
       </c>
-      <c r="H4" s="8">
+      <c r="I4" s="8">
         <v>593</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>5833</v>
       </c>
-      <c r="H5" s="8">
+      <c r="I5" s="8">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>66550</v>
       </c>
-      <c r="H6" s="8">
+      <c r="I6" s="8">
         <v>1410</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>7698</v>
       </c>
-      <c r="H7" s="8">
+      <c r="I7" s="8">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>12923</v>
       </c>
-      <c r="H8" s="8">
+      <c r="I8" s="8">
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>35</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>58236</v>
       </c>
-      <c r="H9" s="8">
+      <c r="I9" s="8">
         <v>1059</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>24418</v>
       </c>
-      <c r="H10" s="8">
+      <c r="I10" s="8">
         <v>559</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>43</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>66709</v>
       </c>
-      <c r="H11" s="8">
+      <c r="I11" s="8">
         <v>1581</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" t="s">
         <v>45</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>46</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>47</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>24475</v>
       </c>
-      <c r="H12" s="8">
+      <c r="I12" s="8">
         <v>572</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" t="s">
         <v>49</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>51</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>30088</v>
       </c>
-      <c r="H13" s="8">
+      <c r="I13" s="8">
         <v>686</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>54</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>55</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>68114</v>
       </c>
-      <c r="H14" s="8">
+      <c r="I14" s="8">
         <v>1686</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" t="s">
         <v>57</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>58</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>59</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>26717</v>
       </c>
-      <c r="H15" s="8">
+      <c r="I15" s="8">
         <v>580</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>28</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" t="s">
         <v>61</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>62</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>63</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>17137</v>
       </c>
-      <c r="H16" s="8">
+      <c r="I16" s="8">
         <v>395</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>29</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" t="s">
         <v>65</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>66</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>67</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>103544</v>
       </c>
-      <c r="H17" s="8">
+      <c r="I17" s="8">
         <v>2722</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>31</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" t="s">
         <v>69</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>70</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>71</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>134580</v>
       </c>
-      <c r="H18" s="8">
+      <c r="I18" s="8">
         <v>4208</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>32</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" t="s">
         <v>73</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>74</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>75</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>29146</v>
       </c>
-      <c r="H19" s="8">
+      <c r="I19" s="8">
         <v>801</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>33</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" t="s">
         <v>77</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>78</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>79</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>109615</v>
       </c>
-      <c r="H20" s="8">
+      <c r="I20" s="8">
         <v>3327</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>35</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" t="s">
         <v>81</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>82</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>83</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>310126</v>
       </c>
-      <c r="H21" s="8">
+      <c r="I21" s="8">
         <v>8631</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>41</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" t="s">
         <v>85</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>86</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>87</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="4">
         <v>80174</v>
       </c>
-      <c r="H22" s="8">
+      <c r="I22" s="8">
         <v>2141</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>42</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" t="s">
         <v>89</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>90</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>91</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G23" s="4">
+      <c r="H23" s="4">
         <v>51412</v>
       </c>
-      <c r="H23" s="8">
+      <c r="I23" s="8">
         <v>1417</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" t="s">
         <v>93</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>94</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>95</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G24" s="4">
+      <c r="H24" s="4">
         <v>71315</v>
       </c>
-      <c r="H24" s="8">
+      <c r="I24" s="8">
         <v>2318</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>50</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" t="s">
         <v>97</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>98</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>99</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>100</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="4">
         <v>22459</v>
       </c>
-      <c r="H25" s="8">
+      <c r="I25" s="8">
         <v>532</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>51</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" t="s">
         <v>101</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>102</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>103</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G26" s="4">
+      <c r="H26" s="4">
         <v>29592</v>
       </c>
-      <c r="H26" s="8">
+      <c r="I26" s="8">
         <v>627</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>52</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" t="s">
         <v>105</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>106</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>107</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G27" s="4">
+      <c r="H27" s="4">
         <v>50087</v>
       </c>
-      <c r="H27" s="8">
+      <c r="I27" s="8">
         <v>1462</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>53</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" t="s">
         <v>109</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>110</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>111</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>112</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H28" s="4">
         <v>22313</v>
       </c>
-      <c r="H28" s="8">
+      <c r="I28" s="8">
         <v>535</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>11</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>5</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>6</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>7</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G29" s="6">
+      <c r="H29" s="6">
         <v>13465</v>
       </c>
-      <c r="H29" s="9">
+      <c r="I29" s="9">
         <v>203</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>12</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>9</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>10</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>11</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G30" s="6">
+      <c r="H30" s="6">
         <v>7578</v>
       </c>
-      <c r="H30" s="9">
+      <c r="I30" s="9">
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>13</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>13</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>14</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>15</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G31" s="6">
+      <c r="H31" s="6">
         <v>34951</v>
       </c>
-      <c r="H31" s="9">
+      <c r="I31" s="9">
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>14</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>17</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>18</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>19</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G32" s="6">
+      <c r="H32" s="6">
         <v>5469</v>
       </c>
-      <c r="H32" s="9">
+      <c r="I32" s="9">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>15</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>21</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>22</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>23</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>24</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="G33" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G33" s="6">
+      <c r="H33" s="6">
         <v>63152</v>
       </c>
-      <c r="H33" s="9">
+      <c r="I33" s="9">
         <v>1040</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>16</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>25</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>26</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>27</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="G34" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G34" s="6">
+      <c r="H34" s="6">
         <v>7275</v>
       </c>
-      <c r="H34" s="9">
+      <c r="I34" s="9">
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>17</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>29</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>30</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>31</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="G35" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G35" s="6">
+      <c r="H35" s="6">
         <v>12084</v>
       </c>
-      <c r="H35" s="9">
+      <c r="I35" s="9">
         <v>219</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>21</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>33</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>34</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>35</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G36" s="6">
+      <c r="H36" s="6">
         <v>55337</v>
       </c>
-      <c r="H36" s="9">
+      <c r="I36" s="9">
         <v>978</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>22</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>37</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>38</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>39</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>40</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="G37" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G37" s="6">
+      <c r="H37" s="6">
         <v>23534</v>
       </c>
-      <c r="H37" s="9">
+      <c r="I37" s="9">
         <v>453</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>23</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>41</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>42</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>43</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="G38" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G38" s="6">
+      <c r="H38" s="6">
         <v>62816</v>
       </c>
-      <c r="H38" s="9">
+      <c r="I38" s="9">
         <v>1405</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>24</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>45</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>46</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>47</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="G39" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G39" s="6">
+      <c r="H39" s="6">
         <v>23269</v>
       </c>
-      <c r="H39" s="9">
+      <c r="I39" s="9">
         <v>530</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>25</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>49</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>50</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>51</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="G40" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G40" s="6">
+      <c r="H40" s="6">
         <v>28885</v>
       </c>
-      <c r="H40" s="9">
+      <c r="I40" s="9">
         <v>604</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>26</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>53</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>54</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>55</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="G41" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G41" s="6">
+      <c r="H41" s="6">
         <v>64937</v>
       </c>
-      <c r="H41" s="9">
+      <c r="I41" s="9">
         <v>1490</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>27</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>57</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>58</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>59</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>60</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="G42" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G42" s="6">
+      <c r="H42" s="6">
         <v>25011</v>
       </c>
-      <c r="H42" s="9">
+      <c r="I42" s="9">
         <v>519</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>28</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>61</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>62</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>63</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>64</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="G43" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G43" s="6">
+      <c r="H43" s="6">
         <v>16324</v>
       </c>
-      <c r="H43" s="9">
+      <c r="I43" s="9">
         <v>365</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>65</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>66</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>67</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>68</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="G44" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G44" s="6">
+      <c r="H44" s="6">
         <v>99120</v>
       </c>
-      <c r="H44" s="9">
+      <c r="I44" s="9">
         <v>2300</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>31</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>69</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>70</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>71</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>72</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="G45" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G45" s="6">
+      <c r="H45" s="6">
         <v>128856</v>
       </c>
-      <c r="H45" s="9">
+      <c r="I45" s="9">
         <v>3122</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>32</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>73</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>74</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>75</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>76</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="G46" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G46" s="6">
+      <c r="H46" s="6">
         <v>27550</v>
       </c>
-      <c r="H46" s="9">
+      <c r="I46" s="9">
         <v>598</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>33</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>77</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>78</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>79</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>80</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="G47" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G47" s="6">
+      <c r="H47" s="6">
         <v>105580</v>
       </c>
-      <c r="H47" s="9">
+      <c r="I47" s="9">
         <v>3058</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>35</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>81</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>82</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>83</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>84</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="G48" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G48" s="6">
+      <c r="H48" s="6">
         <v>295220</v>
       </c>
-      <c r="H48" s="9">
+      <c r="I48" s="9">
         <v>7278</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>41</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>85</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>86</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>87</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>88</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="G49" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G49" s="6">
+      <c r="H49" s="6">
         <v>75959</v>
       </c>
-      <c r="H49" s="9">
+      <c r="I49" s="9">
         <v>1829</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>42</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>89</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>90</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>91</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>92</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="G50" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G50" s="6">
+      <c r="H50" s="6">
         <v>48247</v>
       </c>
-      <c r="H50" s="9">
+      <c r="I50" s="9">
         <v>1128</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>93</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>94</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>95</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>96</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="G51" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G51" s="6">
+      <c r="H51" s="6">
         <v>68119</v>
       </c>
-      <c r="H51" s="9">
+      <c r="I51" s="9">
         <v>1908</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>97</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>98</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>99</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>100</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="G52" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G52" s="6">
+      <c r="H52" s="6">
         <v>21613</v>
       </c>
-      <c r="H52" s="9">
+      <c r="I52" s="9">
         <v>389</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>101</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>102</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>103</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>104</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="G53" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G53" s="6">
+      <c r="H53" s="6">
         <v>28055</v>
       </c>
-      <c r="H53" s="9">
+      <c r="I53" s="9">
         <v>532</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>105</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>106</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>107</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>108</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="G54" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G54" s="6">
+      <c r="H54" s="6">
         <v>48040</v>
       </c>
-      <c r="H54" s="9">
+      <c r="I54" s="9">
         <v>939</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>109</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>110</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>111</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>112</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="G55" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G55" s="6">
+      <c r="H55" s="6">
         <v>21704</v>
       </c>
-      <c r="H55" s="9">
+      <c r="I55" s="9">
         <v>480</v>
       </c>
     </row>
@@ -2185,826 +2287,910 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>117</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>118</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>120</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7">
+      <c r="G2" s="7">
         <v>1796460</v>
       </c>
-      <c r="G2" s="7">
+      <c r="H2" s="7">
         <v>3</v>
       </c>
-      <c r="H2" s="10">
+      <c r="I2" s="10">
         <v>584</v>
       </c>
-      <c r="I2" s="11">
+      <c r="J2" s="11">
         <v>592</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="7">
+      <c r="G3" s="7">
         <v>894470</v>
       </c>
-      <c r="G3" s="7">
+      <c r="H3" s="7">
         <v>3.2</v>
       </c>
-      <c r="H3" s="10">
+      <c r="I3" s="10">
         <v>244</v>
       </c>
-      <c r="I3" s="11">
+      <c r="J3" s="11">
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="7">
+      <c r="G4" s="7">
         <v>4207714</v>
       </c>
-      <c r="G4" s="7">
+      <c r="H4" s="7">
         <v>3.6</v>
       </c>
-      <c r="H4" s="10">
+      <c r="I4" s="10">
         <v>1001</v>
       </c>
-      <c r="I4" s="11">
+      <c r="J4" s="11">
         <v>1083</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="7">
+      <c r="G5" s="7">
         <v>631181</v>
       </c>
-      <c r="G5" s="7">
+      <c r="H5" s="7">
         <v>3.5</v>
       </c>
-      <c r="H5" s="10">
+      <c r="I5" s="10">
         <v>148</v>
       </c>
-      <c r="I5" s="11">
+      <c r="J5" s="11">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="7">
+      <c r="G6" s="7">
         <v>8690745</v>
       </c>
-      <c r="G6" s="7">
+      <c r="H6" s="7">
         <v>3.4</v>
       </c>
-      <c r="H6" s="10">
+      <c r="I6" s="10">
         <v>2309</v>
       </c>
-      <c r="I6" s="11">
+      <c r="J6" s="11">
         <v>2517</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G7" s="7">
         <v>861773</v>
       </c>
-      <c r="G7" s="7">
+      <c r="H7" s="7">
         <v>3.8</v>
       </c>
-      <c r="H7" s="10">
+      <c r="I7" s="10">
         <v>216</v>
       </c>
-      <c r="I7" s="11">
+      <c r="J7" s="11">
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="7">
+      <c r="G8" s="7">
         <v>1590248</v>
       </c>
-      <c r="G8" s="7">
+      <c r="H8" s="7">
         <v>3</v>
       </c>
-      <c r="H8" s="10">
+      <c r="I8" s="10">
         <v>516</v>
       </c>
-      <c r="I8" s="11">
+      <c r="J8" s="11">
         <v>522</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>35</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="7">
+      <c r="G9" s="7">
         <v>7114598</v>
       </c>
-      <c r="G9" s="7">
+      <c r="H9" s="7">
         <v>3.4</v>
       </c>
-      <c r="H9" s="10">
+      <c r="I9" s="10">
         <v>1918</v>
       </c>
-      <c r="I9" s="11">
+      <c r="J9" s="11">
         <v>2083</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="7">
+      <c r="G10" s="7">
         <v>3281480</v>
       </c>
-      <c r="G10" s="7">
+      <c r="H10" s="7">
         <v>3.2</v>
       </c>
-      <c r="H10" s="10">
+      <c r="I10" s="10">
         <v>976</v>
       </c>
-      <c r="I10" s="11">
+      <c r="J10" s="11">
         <v>1020</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>43</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="7">
+      <c r="G11" s="7">
         <v>9187103</v>
       </c>
-      <c r="G11" s="7">
+      <c r="H11" s="7">
         <v>3.1</v>
       </c>
-      <c r="H11" s="10">
+      <c r="I11" s="10">
         <v>2803</v>
       </c>
-      <c r="I11" s="11">
+      <c r="J11" s="11">
         <v>2971</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" t="s">
         <v>45</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>46</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>47</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="7">
+      <c r="G12" s="7">
         <v>3534165</v>
       </c>
-      <c r="G12" s="7">
+      <c r="H12" s="7">
         <v>3.1</v>
       </c>
-      <c r="H12" s="10">
+      <c r="I12" s="10">
         <v>1088</v>
       </c>
-      <c r="I12" s="11">
+      <c r="J12" s="11">
         <v>1143</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" t="s">
         <v>49</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>51</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="7">
+      <c r="G13" s="7">
         <v>4039277</v>
       </c>
-      <c r="G13" s="7">
+      <c r="H13" s="7">
         <v>3</v>
       </c>
-      <c r="H13" s="10">
+      <c r="I13" s="10">
         <v>1194</v>
       </c>
-      <c r="I13" s="11">
+      <c r="J13" s="11">
         <v>1310</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>54</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>55</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="7">
+      <c r="G14" s="7">
         <v>9616621</v>
       </c>
-      <c r="G14" s="7">
+      <c r="H14" s="7">
         <v>2.9</v>
       </c>
-      <c r="H14" s="10">
+      <c r="I14" s="10">
         <v>3013</v>
       </c>
-      <c r="I14" s="11">
+      <c r="J14" s="11">
         <v>3272</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" t="s">
         <v>57</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>58</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>59</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="7">
+      <c r="G15" s="7">
         <v>3351543</v>
       </c>
-      <c r="G15" s="7">
+      <c r="H15" s="7">
         <v>3</v>
       </c>
-      <c r="H15" s="10">
+      <c r="I15" s="10">
         <v>1045</v>
       </c>
-      <c r="I15" s="11">
+      <c r="J15" s="11">
         <v>1123</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>28</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" t="s">
         <v>61</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>62</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>63</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="7">
+      <c r="G16" s="7">
         <v>2318822</v>
       </c>
-      <c r="G16" s="7">
+      <c r="H16" s="7">
         <v>2.9</v>
       </c>
-      <c r="H16" s="10">
+      <c r="I16" s="10">
         <v>742</v>
       </c>
-      <c r="I16" s="11">
+      <c r="J16" s="11">
         <v>786</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>29</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" t="s">
         <v>65</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>66</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>67</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="7">
+      <c r="G17" s="7">
         <v>14930634</v>
       </c>
-      <c r="G17" s="7">
+      <c r="H17" s="7">
         <v>2.9</v>
       </c>
-      <c r="H17" s="10">
+      <c r="I17" s="10">
         <v>4969</v>
       </c>
-      <c r="I17" s="11">
+      <c r="J17" s="11">
         <v>5170</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>31</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" t="s">
         <v>69</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>70</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>71</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="7">
+      <c r="G18" s="7">
         <v>21292666</v>
       </c>
-      <c r="G18" s="7">
+      <c r="H18" s="7">
         <v>2.8</v>
       </c>
-      <c r="H18" s="10">
+      <c r="I18" s="10">
         <v>7437</v>
       </c>
-      <c r="I18" s="11">
+      <c r="J18" s="11">
         <v>7453</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>32</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" t="s">
         <v>73</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>74</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>75</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="7">
+      <c r="G19" s="7">
         <v>4064052</v>
       </c>
-      <c r="G19" s="7">
+      <c r="H19" s="7">
         <v>2.8</v>
       </c>
-      <c r="H19" s="10">
+      <c r="I19" s="10">
         <v>1420</v>
       </c>
-      <c r="I19" s="11">
+      <c r="J19" s="11">
         <v>1421</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>33</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" t="s">
         <v>77</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>78</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>79</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="7">
+      <c r="G20" s="7">
         <v>17366189</v>
       </c>
-      <c r="G20" s="7">
+      <c r="H20" s="7">
         <v>2.7</v>
       </c>
-      <c r="H20" s="10">
+      <c r="I20" s="10">
         <v>6474</v>
       </c>
-      <c r="I20" s="11">
+      <c r="J20" s="11">
         <v>6498</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>35</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" t="s">
         <v>81</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>82</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>83</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="7">
+      <c r="G21" s="7">
         <v>46289333</v>
       </c>
-      <c r="G21" s="7">
+      <c r="H21" s="7">
         <v>2.8</v>
       </c>
-      <c r="H21" s="10">
+      <c r="I21" s="10">
         <v>16107</v>
       </c>
-      <c r="I21" s="11">
+      <c r="J21" s="11">
         <v>16131</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>41</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" t="s">
         <v>85</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>86</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>87</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="7">
+      <c r="G22" s="7">
         <v>11516840</v>
       </c>
-      <c r="G22" s="7">
+      <c r="H22" s="7">
         <v>2.8</v>
       </c>
-      <c r="H22" s="10">
+      <c r="I22" s="10">
         <v>4036</v>
       </c>
-      <c r="I22" s="11">
+      <c r="J22" s="11">
         <v>4039</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>42</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" t="s">
         <v>89</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>90</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>91</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="7">
+      <c r="G23" s="7">
         <v>7252502</v>
       </c>
-      <c r="G23" s="7">
+      <c r="H23" s="7">
         <v>2.8</v>
       </c>
-      <c r="H23" s="10">
+      <c r="I23" s="10">
         <v>2558</v>
       </c>
-      <c r="I23" s="11">
+      <c r="J23" s="11">
         <v>2559</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" t="s">
         <v>93</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>94</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>95</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="7">
+      <c r="G24" s="7">
         <v>11422973</v>
       </c>
-      <c r="G24" s="7">
+      <c r="H24" s="7">
         <v>2.6</v>
       </c>
-      <c r="H24" s="10">
+      <c r="I24" s="10">
         <v>4335</v>
       </c>
-      <c r="I24" s="11">
+      <c r="J24" s="11">
         <v>4341</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>50</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" t="s">
         <v>97</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>98</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>99</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>100</v>
       </c>
-      <c r="F25" s="7">
+      <c r="G25" s="7">
         <v>2809394</v>
       </c>
-      <c r="G25" s="7">
+      <c r="H25" s="7">
         <v>2.9</v>
       </c>
-      <c r="H25" s="10">
+      <c r="I25" s="10">
         <v>926</v>
       </c>
-      <c r="I25" s="11">
+      <c r="J25" s="11">
         <v>927</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>51</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" t="s">
         <v>101</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>102</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>103</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="7">
+      <c r="G26" s="7">
         <v>3526220</v>
       </c>
-      <c r="G26" s="7">
+      <c r="H26" s="7">
         <v>3</v>
       </c>
-      <c r="H26" s="10">
+      <c r="I26" s="10">
         <v>1139</v>
       </c>
-      <c r="I26" s="11">
+      <c r="J26" s="11">
         <v>1143</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>52</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" t="s">
         <v>105</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>106</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>107</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="7">
+      <c r="G27" s="7">
         <v>7113540</v>
       </c>
-      <c r="G27" s="7">
+      <c r="H27" s="7">
         <v>2.8</v>
       </c>
-      <c r="H27" s="10">
+      <c r="I27" s="10">
         <v>2472</v>
       </c>
-      <c r="I27" s="11">
+      <c r="J27" s="11">
         <v>2476</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>53</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" t="s">
         <v>109</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>110</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>111</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>112</v>
       </c>
-      <c r="F28" s="7">
+      <c r="G28" s="7">
         <v>3055149</v>
       </c>
-      <c r="G28" s="7">
+      <c r="H28" s="7">
         <v>3</v>
       </c>
-      <c r="H28" s="10">
+      <c r="I28" s="10">
         <v>1008</v>
       </c>
-      <c r="I28" s="11">
+      <c r="J28" s="11">
         <v>1007</v>
       </c>
     </row>
